--- a/templates/productie/productie_opdracht_template_full.xlsx
+++ b/templates/productie/productie_opdracht_template_full.xlsx
@@ -5207,7 +5207,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-03-04 08:56:15.659770</t>
+    <t>2025-03-05 16:14:45.764370</t>
   </si>
   <si>
     <t>version</t>

--- a/templates/productie/productie_opdracht_template_full.xlsx
+++ b/templates/productie/productie_opdracht_template_full.xlsx
@@ -5207,13 +5207,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-03-05 16:14:45.764370</t>
+    <t>2025-03-19 12:18:10.562098</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.1.2</t>
+    <t>2.1.3</t>
   </si>
   <si>
     <t>xdov-version</t>

--- a/templates/productie/productie_opdracht_template_full.xlsx
+++ b/templates/productie/productie_opdracht_template_full.xlsx
@@ -5207,25 +5207,25 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-03-19 12:18:10.562098</t>
+    <t>2025-04-17 10:01:22.214855</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.1.3</t>
+    <t>2.1.4</t>
   </si>
   <si>
     <t>xdov-version</t>
   </si>
   <si>
-    <t>9.1.0</t>
+    <t>9.1.2</t>
   </si>
   <si>
     <t>schema-version</t>
   </si>
   <si>
-    <t>5.4.0</t>
+    <t>5.4.1</t>
   </si>
   <si>
     <t>mode</t>

--- a/templates/productie/productie_opdracht_template_full.xlsx
+++ b/templates/productie/productie_opdracht_template_full.xlsx
@@ -5207,25 +5207,25 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-04-17 10:01:22.214855</t>
+    <t>2025-06-27 02:17:32.162173</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.1.4</t>
+    <t>2.1.5</t>
   </si>
   <si>
     <t>xdov-version</t>
   </si>
   <si>
-    <t>9.1.2</t>
+    <t>9.2.0</t>
   </si>
   <si>
     <t>schema-version</t>
   </si>
   <si>
-    <t>5.4.1</t>
+    <t>5.5.0</t>
   </si>
   <si>
     <t>mode</t>

--- a/templates/productie/productie_opdracht_template_full.xlsx
+++ b/templates/productie/productie_opdracht_template_full.xlsx
@@ -5207,13 +5207,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-06-27 02:17:32.162173</t>
+    <t>2025-08-06 15:10:52.849037</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.1.5</t>
+    <t>2.1.6</t>
   </si>
   <si>
     <t>xdov-version</t>

--- a/templates/productie/productie_opdracht_template_full.xlsx
+++ b/templates/productie/productie_opdracht_template_full.xlsx
@@ -5207,13 +5207,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-08-06 15:10:52.849037</t>
+    <t>2025-09-18 15:21:09.265611</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.1.6</t>
+    <t>2.1.7</t>
   </si>
   <si>
     <t>xdov-version</t>

--- a/templates/productie/productie_opdracht_template_full.xlsx
+++ b/templates/productie/productie_opdracht_template_full.xlsx
@@ -5291,7 +5291,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-09-22 09:28:00.658426</t>
+    <t>2025-09-22 09:59:14.920253</t>
   </si>
   <si>
     <t>version</t>
@@ -26482,13 +26482,13 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG6:AG1000001">
-      <formula1>'Codelijsten'!$A$4:''$A$8</formula1>
+      <formula1>'Codelijsten'!$A$4:$A$8</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI6:AI1000001">
-      <formula1>'Codelijsten'!$C$4:''$C$18</formula1>
+      <formula1>'Codelijsten'!$C$4:$C$18</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ6:AJ1000001">
-      <formula1>'Codelijsten'!$E$4:''$E$29</formula1>
+      <formula1>'Codelijsten'!$E$4:$E$29</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR6:AR1000001">
       <formula1>-146096</formula1>
@@ -26497,7 +26497,7 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX6:AX1000001">
-      <formula1>'Codelijsten'!$G$4:''$G$86</formula1>
+      <formula1>'Codelijsten'!$G$4:$G$86</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -27314,25 +27314,25 @@
   </mergeCells>
   <dataValidations count="13">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B1000001">
-      <formula1>'Codelijsten'!$I$4:''$I$14</formula1>
+      <formula1>'Codelijsten'!$I$4:$I$14</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C1000001">
-      <formula1>'Codelijsten'!$K$4:''$K$5</formula1>
+      <formula1>'Codelijsten'!$K$4:$K$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H1000001">
-      <formula1>'Codelijsten'!$M$4:''$M$86</formula1>
+      <formula1>'Codelijsten'!$M$4:$M$86</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I1000001">
-      <formula1>'Codelijsten'!$O$4:''$O$12</formula1>
+      <formula1>'Codelijsten'!$O$4:$O$12</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T7:T1000001">
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W7:W1000001">
-      <formula1>'Codelijsten'!$Q$4:''$Q$40</formula1>
+      <formula1>'Codelijsten'!$Q$4:$Q$40</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X7:X1000001">
-      <formula1>'Codelijsten'!$S$4:''$S$6</formula1>
+      <formula1>'Codelijsten'!$S$4:$S$6</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG7:AG1000001">
       <formula1>-146096</formula1>
@@ -27350,7 +27350,7 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BD7:BD1000001">
-      <formula1>'Codelijsten'!$U$4:''$U$86</formula1>
+      <formula1>'Codelijsten'!$U$4:$U$86</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -28371,25 +28371,25 @@
   </mergeCells>
   <dataValidations count="17">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A1000001">
-      <formula1>'Codelijsten'!$W$4:''$W$1003</formula1>
+      <formula1>'Codelijsten'!$W$4:$W$1003</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:N1000001">
-      <formula1>'Codelijsten'!$Y$4:''$Y$68</formula1>
+      <formula1>'Codelijsten'!$Y$4:$Y$68</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O1000001">
-      <formula1>'Codelijsten'!$AA$4:''$AA$68</formula1>
+      <formula1>'Codelijsten'!$AA$4:$AA$68</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T8:T1000001">
-      <formula1>'Codelijsten'!$AC$4:''$AC$6</formula1>
+      <formula1>'Codelijsten'!$AC$4:$AC$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD8:AD1000001">
-      <formula1>'Codelijsten'!$AE$4:''$AE$68</formula1>
+      <formula1>'Codelijsten'!$AE$4:$AE$68</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE8:AE1000001">
-      <formula1>'Codelijsten'!$AG$4:''$AG$6</formula1>
+      <formula1>'Codelijsten'!$AG$4:$AG$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF8:AF1000001">
-      <formula1>'Codelijsten'!$AI$4:''$AI$181</formula1>
+      <formula1>'Codelijsten'!$AI$4:$AI$181</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG8:AG1000001">
       <formula1>-146096</formula1>
@@ -28398,16 +28398,16 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI8:AI1000001">
-      <formula1>'Codelijsten'!$AK$4:''$AK$6</formula1>
+      <formula1>'Codelijsten'!$AK$4:$AK$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ8:AJ1000001">
-      <formula1>'Codelijsten'!$AM$4:''$AM$5</formula1>
+      <formula1>'Codelijsten'!$AM$4:$AM$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB8:BB1000001">
-      <formula1>'Codelijsten'!$AO$4:''$AO$1003</formula1>
+      <formula1>'Codelijsten'!$AO$4:$AO$1003</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE8:BE1000001">
-      <formula1>'Codelijsten'!$AQ$4:''$AQ$68</formula1>
+      <formula1>'Codelijsten'!$AQ$4:$AQ$68</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH8:BH1000001">
       <formula1>-146096</formula1>
@@ -28419,7 +28419,7 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU8:BU1000001">
-      <formula1>'Codelijsten'!$AS$4:''$AS$86</formula1>
+      <formula1>'Codelijsten'!$AS$4:$AS$86</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>

--- a/templates/productie/productie_opdracht_template_full.xlsx
+++ b/templates/productie/productie_opdracht_template_full.xlsx
@@ -5291,7 +5291,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-09-22 09:59:14.920253</t>
+    <t>2025-09-22 11:00:03.354777</t>
   </si>
   <si>
     <t>version</t>
@@ -5309,7 +5309,7 @@
     <t>schema-version</t>
   </si>
   <si>
-    <t>5.5.0</t>
+    <t>5.5.1</t>
   </si>
   <si>
     <t>mode</t>

--- a/templates/productie/productie_opdracht_template_full.xlsx
+++ b/templates/productie/productie_opdracht_template_full.xlsx
@@ -5291,13 +5291,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-09-22 11:00:03.354777</t>
+    <t>2025-09-24 17:44:33.370524</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.1.8</t>
+    <t>2.2.0</t>
   </si>
   <si>
     <t>xdov-version</t>

--- a/templates/productie/productie_opdracht_template_full.xlsx
+++ b/templates/productie/productie_opdracht_template_full.xlsx
@@ -5291,13 +5291,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-09-24 17:44:33.370524</t>
+    <t>2025-09-24 22:46:47.473381</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.2.0</t>
+    <t>2.2.1</t>
   </si>
   <si>
     <t>xdov-version</t>

--- a/templates/productie/productie_opdracht_template_full.xlsx
+++ b/templates/productie/productie_opdracht_template_full.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6522" uniqueCount="1768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6530" uniqueCount="1770">
   <si>
     <t>naam</t>
   </si>
@@ -4538,6 +4538,12 @@
     <t>DW</t>
   </si>
   <si>
+    <t>Dichlorpr-P</t>
+  </si>
+  <si>
+    <t>Dimethenamid-P</t>
+  </si>
+  <si>
     <t>voorbehandeling_observatie_type_bewaring</t>
   </si>
   <si>
@@ -5291,25 +5297,25 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-09-24 22:46:47.473381</t>
+    <t>2025-12-18 01:28:30.844740</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.2.1</t>
+    <t>2.2.2</t>
   </si>
   <si>
     <t>xdov-version</t>
   </si>
   <si>
-    <t>9.2.2</t>
+    <t>9.4.0</t>
   </si>
   <si>
     <t>schema-version</t>
   </si>
   <si>
-    <t>5.5.1</t>
+    <t>5.7.0</t>
   </si>
   <si>
     <t>mode</t>
@@ -5484,7 +5490,7 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="W3:X1003" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="W3:X1005" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Beschrijving"/>
@@ -5584,7 +5590,7 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="AO3:AP1003" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="AO3:AP1005" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Beschrijving"/>
@@ -5968,7 +5974,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT1003"/>
+  <dimension ref="A1:AT1005"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6005,7 +6011,7 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1" t="s">
-        <v>1755</v>
+        <v>1757</v>
       </c>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
@@ -6339,13 +6345,13 @@
         <v>88</v>
       </c>
       <c r="Y4" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="Z4" t="s">
         <v>88</v>
       </c>
       <c r="AA4" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="AB4" t="s">
         <v>88</v>
@@ -6357,31 +6363,31 @@
         <v>88</v>
       </c>
       <c r="AE4" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="AF4" t="s">
         <v>88</v>
       </c>
       <c r="AG4" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c r="AH4" t="s">
         <v>88</v>
       </c>
       <c r="AI4" t="s">
-        <v>1576</v>
+        <v>1578</v>
       </c>
       <c r="AJ4" t="s">
         <v>88</v>
       </c>
       <c r="AK4" s="2" t="s">
-        <v>1750</v>
+        <v>1752</v>
       </c>
       <c r="AL4" t="s">
         <v>88</v>
       </c>
       <c r="AM4" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="AN4" t="s">
         <v>88</v>
@@ -6393,7 +6399,7 @@
         <v>88</v>
       </c>
       <c r="AQ4" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="AR4" t="s">
         <v>88</v>
@@ -6479,13 +6485,13 @@
         <v>88</v>
       </c>
       <c r="Y5" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="Z5" t="s">
         <v>88</v>
       </c>
       <c r="AA5" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="AB5" t="s">
         <v>88</v>
@@ -6497,31 +6503,31 @@
         <v>88</v>
       </c>
       <c r="AE5" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="AF5" t="s">
         <v>88</v>
       </c>
       <c r="AG5" t="s">
-        <v>1575</v>
+        <v>1577</v>
       </c>
       <c r="AH5" t="s">
         <v>88</v>
       </c>
       <c r="AI5" t="s">
-        <v>1577</v>
+        <v>1579</v>
       </c>
       <c r="AJ5" t="s">
         <v>88</v>
       </c>
       <c r="AK5" s="2" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="AL5" t="s">
         <v>88</v>
       </c>
       <c r="AM5" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="AN5" t="s">
         <v>88</v>
@@ -6533,7 +6539,7 @@
         <v>88</v>
       </c>
       <c r="AQ5" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="AR5" t="s">
         <v>88</v>
@@ -6613,13 +6619,13 @@
         <v>88</v>
       </c>
       <c r="Y6" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="Z6" t="s">
         <v>88</v>
       </c>
       <c r="AA6" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="AB6" t="s">
         <v>88</v>
@@ -6631,25 +6637,25 @@
         <v>88</v>
       </c>
       <c r="AE6" t="s">
+        <v>1515</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG6" t="s">
         <v>1513</v>
       </c>
-      <c r="AF6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>1511</v>
-      </c>
       <c r="AH6" t="s">
         <v>88</v>
       </c>
       <c r="AI6" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="AJ6" t="s">
         <v>88</v>
       </c>
       <c r="AK6" s="2" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="AL6" t="s">
         <v>88</v>
@@ -6661,7 +6667,7 @@
         <v>88</v>
       </c>
       <c r="AQ6" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="AR6" t="s">
         <v>88</v>
@@ -6735,25 +6741,25 @@
         <v>88</v>
       </c>
       <c r="Y7" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="Z7" t="s">
         <v>88</v>
       </c>
       <c r="AA7" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="AB7" t="s">
         <v>88</v>
       </c>
       <c r="AE7" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="AF7" t="s">
         <v>88</v>
       </c>
       <c r="AI7" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
       <c r="AJ7" t="s">
         <v>88</v>
@@ -6765,7 +6771,7 @@
         <v>88</v>
       </c>
       <c r="AQ7" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="AR7" t="s">
         <v>88</v>
@@ -6839,25 +6845,25 @@
         <v>88</v>
       </c>
       <c r="Y8" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="Z8" t="s">
         <v>88</v>
       </c>
       <c r="AA8" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="AB8" t="s">
         <v>88</v>
       </c>
       <c r="AE8" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="AF8" t="s">
         <v>88</v>
       </c>
       <c r="AI8" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="AJ8" t="s">
         <v>88</v>
@@ -6869,7 +6875,7 @@
         <v>88</v>
       </c>
       <c r="AQ8" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="AR8" t="s">
         <v>88</v>
@@ -6937,25 +6943,25 @@
         <v>88</v>
       </c>
       <c r="Y9" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="Z9" t="s">
         <v>88</v>
       </c>
       <c r="AA9" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="AB9" t="s">
         <v>88</v>
       </c>
       <c r="AE9" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="AF9" t="s">
         <v>88</v>
       </c>
       <c r="AI9" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="AJ9" t="s">
         <v>88</v>
@@ -6967,7 +6973,7 @@
         <v>88</v>
       </c>
       <c r="AQ9" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="AR9" t="s">
         <v>88</v>
@@ -7035,25 +7041,25 @@
         <v>88</v>
       </c>
       <c r="Y10" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="Z10" t="s">
         <v>88</v>
       </c>
       <c r="AA10" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="AB10" t="s">
         <v>88</v>
       </c>
       <c r="AE10" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="AF10" t="s">
         <v>88</v>
       </c>
       <c r="AI10" t="s">
-        <v>1582</v>
+        <v>1584</v>
       </c>
       <c r="AJ10" t="s">
         <v>88</v>
@@ -7065,7 +7071,7 @@
         <v>88</v>
       </c>
       <c r="AQ10" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="AR10" t="s">
         <v>88</v>
@@ -7133,25 +7139,25 @@
         <v>88</v>
       </c>
       <c r="Y11" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="Z11" t="s">
         <v>88</v>
       </c>
       <c r="AA11" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="AB11" t="s">
         <v>88</v>
       </c>
       <c r="AE11" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="AF11" t="s">
         <v>88</v>
       </c>
       <c r="AI11" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
       <c r="AJ11" t="s">
         <v>88</v>
@@ -7163,7 +7169,7 @@
         <v>88</v>
       </c>
       <c r="AQ11" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="AR11" t="s">
         <v>88</v>
@@ -7231,25 +7237,25 @@
         <v>88</v>
       </c>
       <c r="Y12" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="Z12" t="s">
         <v>88</v>
       </c>
       <c r="AA12" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="AB12" t="s">
         <v>88</v>
       </c>
       <c r="AE12" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="AF12" t="s">
         <v>88</v>
       </c>
       <c r="AI12" t="s">
-        <v>1584</v>
+        <v>1586</v>
       </c>
       <c r="AJ12" t="s">
         <v>88</v>
@@ -7261,7 +7267,7 @@
         <v>88</v>
       </c>
       <c r="AQ12" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="AR12" t="s">
         <v>88</v>
@@ -7323,25 +7329,25 @@
         <v>88</v>
       </c>
       <c r="Y13" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="Z13" t="s">
         <v>88</v>
       </c>
       <c r="AA13" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="AB13" t="s">
         <v>88</v>
       </c>
       <c r="AE13" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="AF13" t="s">
         <v>88</v>
       </c>
       <c r="AI13" t="s">
-        <v>1585</v>
+        <v>1587</v>
       </c>
       <c r="AJ13" t="s">
         <v>88</v>
@@ -7353,7 +7359,7 @@
         <v>88</v>
       </c>
       <c r="AQ13" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="AR13" t="s">
         <v>88</v>
@@ -7415,25 +7421,25 @@
         <v>88</v>
       </c>
       <c r="Y14" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="Z14" t="s">
         <v>88</v>
       </c>
       <c r="AA14" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="AB14" t="s">
         <v>88</v>
       </c>
       <c r="AE14" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="AF14" t="s">
         <v>88</v>
       </c>
       <c r="AI14" t="s">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c r="AJ14" t="s">
         <v>88</v>
@@ -7445,7 +7451,7 @@
         <v>88</v>
       </c>
       <c r="AQ14" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="AR14" t="s">
         <v>88</v>
@@ -7501,25 +7507,25 @@
         <v>88</v>
       </c>
       <c r="Y15" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="Z15" t="s">
         <v>88</v>
       </c>
       <c r="AA15" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="AB15" t="s">
         <v>88</v>
       </c>
       <c r="AE15" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="AF15" t="s">
         <v>88</v>
       </c>
       <c r="AI15" t="s">
-        <v>1587</v>
+        <v>1589</v>
       </c>
       <c r="AJ15" t="s">
         <v>88</v>
@@ -7531,7 +7537,7 @@
         <v>88</v>
       </c>
       <c r="AQ15" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="AR15" t="s">
         <v>88</v>
@@ -7587,25 +7593,25 @@
         <v>88</v>
       </c>
       <c r="Y16" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="Z16" t="s">
         <v>88</v>
       </c>
       <c r="AA16" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="AB16" t="s">
         <v>88</v>
       </c>
       <c r="AE16" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="AF16" t="s">
         <v>88</v>
       </c>
       <c r="AI16" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="AJ16" t="s">
         <v>88</v>
@@ -7617,7 +7623,7 @@
         <v>88</v>
       </c>
       <c r="AQ16" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="AR16" t="s">
         <v>88</v>
@@ -7673,25 +7679,25 @@
         <v>88</v>
       </c>
       <c r="Y17" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="Z17" t="s">
         <v>88</v>
       </c>
       <c r="AA17" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="AB17" t="s">
         <v>88</v>
       </c>
       <c r="AE17" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="AF17" t="s">
         <v>88</v>
       </c>
       <c r="AI17" t="s">
-        <v>1589</v>
+        <v>1591</v>
       </c>
       <c r="AJ17" t="s">
         <v>88</v>
@@ -7703,7 +7709,7 @@
         <v>88</v>
       </c>
       <c r="AQ17" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="AR17" t="s">
         <v>88</v>
@@ -7759,25 +7765,25 @@
         <v>88</v>
       </c>
       <c r="Y18" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="Z18" t="s">
         <v>88</v>
       </c>
       <c r="AA18" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="AB18" t="s">
         <v>88</v>
       </c>
       <c r="AE18" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="AF18" t="s">
         <v>88</v>
       </c>
       <c r="AI18" t="s">
-        <v>1590</v>
+        <v>1592</v>
       </c>
       <c r="AJ18" t="s">
         <v>88</v>
@@ -7789,7 +7795,7 @@
         <v>88</v>
       </c>
       <c r="AQ18" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="AR18" t="s">
         <v>88</v>
@@ -7839,19 +7845,19 @@
         <v>88</v>
       </c>
       <c r="Y19" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="Z19" t="s">
         <v>88</v>
       </c>
       <c r="AA19" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="AB19" t="s">
         <v>88</v>
       </c>
       <c r="AE19" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="AF19" t="s">
         <v>88</v>
@@ -7869,7 +7875,7 @@
         <v>88</v>
       </c>
       <c r="AQ19" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="AR19" t="s">
         <v>88</v>
@@ -7919,25 +7925,25 @@
         <v>88</v>
       </c>
       <c r="Y20" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="Z20" t="s">
         <v>88</v>
       </c>
       <c r="AA20" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="AB20" t="s">
         <v>88</v>
       </c>
       <c r="AE20" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="AF20" t="s">
         <v>88</v>
       </c>
       <c r="AI20" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="AJ20" t="s">
         <v>88</v>
@@ -7949,7 +7955,7 @@
         <v>88</v>
       </c>
       <c r="AQ20" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="AR20" t="s">
         <v>88</v>
@@ -7999,25 +8005,25 @@
         <v>88</v>
       </c>
       <c r="Y21" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="Z21" t="s">
         <v>88</v>
       </c>
       <c r="AA21" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="AB21" t="s">
         <v>88</v>
       </c>
       <c r="AE21" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="AF21" t="s">
         <v>88</v>
       </c>
       <c r="AI21" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
       <c r="AJ21" t="s">
         <v>88</v>
@@ -8029,7 +8035,7 @@
         <v>88</v>
       </c>
       <c r="AQ21" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="AR21" t="s">
         <v>88</v>
@@ -8079,25 +8085,25 @@
         <v>88</v>
       </c>
       <c r="Y22" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="Z22" t="s">
         <v>88</v>
       </c>
       <c r="AA22" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="AB22" t="s">
         <v>88</v>
       </c>
       <c r="AE22" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="AF22" t="s">
         <v>88</v>
       </c>
       <c r="AI22" t="s">
-        <v>1593</v>
+        <v>1595</v>
       </c>
       <c r="AJ22" t="s">
         <v>88</v>
@@ -8109,7 +8115,7 @@
         <v>88</v>
       </c>
       <c r="AQ22" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="AR22" t="s">
         <v>88</v>
@@ -8159,25 +8165,25 @@
         <v>88</v>
       </c>
       <c r="Y23" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="Z23" t="s">
         <v>88</v>
       </c>
       <c r="AA23" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="AB23" t="s">
         <v>88</v>
       </c>
       <c r="AE23" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="AF23" t="s">
         <v>88</v>
       </c>
       <c r="AI23" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
       <c r="AJ23" t="s">
         <v>88</v>
@@ -8189,7 +8195,7 @@
         <v>88</v>
       </c>
       <c r="AQ23" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="AR23" t="s">
         <v>88</v>
@@ -8257,7 +8263,7 @@
         <v>88</v>
       </c>
       <c r="AI24" t="s">
-        <v>1595</v>
+        <v>1597</v>
       </c>
       <c r="AJ24" t="s">
         <v>88</v>
@@ -8319,25 +8325,25 @@
         <v>88</v>
       </c>
       <c r="Y25" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="Z25" t="s">
         <v>88</v>
       </c>
       <c r="AA25" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="AB25" t="s">
         <v>88</v>
       </c>
       <c r="AE25" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="AF25" t="s">
         <v>88</v>
       </c>
       <c r="AI25" t="s">
-        <v>1596</v>
+        <v>1598</v>
       </c>
       <c r="AJ25" t="s">
         <v>88</v>
@@ -8349,7 +8355,7 @@
         <v>88</v>
       </c>
       <c r="AQ25" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="AR25" t="s">
         <v>88</v>
@@ -8399,25 +8405,25 @@
         <v>88</v>
       </c>
       <c r="Y26" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="Z26" t="s">
         <v>88</v>
       </c>
       <c r="AA26" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="AB26" t="s">
         <v>88</v>
       </c>
       <c r="AE26" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="AF26" t="s">
         <v>88</v>
       </c>
       <c r="AI26" t="s">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c r="AJ26" t="s">
         <v>88</v>
@@ -8429,7 +8435,7 @@
         <v>88</v>
       </c>
       <c r="AQ26" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="AR26" t="s">
         <v>88</v>
@@ -8479,25 +8485,25 @@
         <v>88</v>
       </c>
       <c r="Y27" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="Z27" t="s">
         <v>88</v>
       </c>
       <c r="AA27" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="AB27" t="s">
         <v>88</v>
       </c>
       <c r="AE27" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="AF27" t="s">
         <v>88</v>
       </c>
       <c r="AI27" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
       <c r="AJ27" t="s">
         <v>88</v>
@@ -8509,7 +8515,7 @@
         <v>88</v>
       </c>
       <c r="AQ27" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="AR27" t="s">
         <v>88</v>
@@ -8559,25 +8565,25 @@
         <v>88</v>
       </c>
       <c r="Y28" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="Z28" t="s">
         <v>88</v>
       </c>
       <c r="AA28" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="AB28" t="s">
         <v>88</v>
       </c>
       <c r="AE28" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="AF28" t="s">
         <v>88</v>
       </c>
       <c r="AI28" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="AJ28" t="s">
         <v>88</v>
@@ -8589,7 +8595,7 @@
         <v>88</v>
       </c>
       <c r="AQ28" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="AR28" t="s">
         <v>88</v>
@@ -8639,25 +8645,25 @@
         <v>88</v>
       </c>
       <c r="Y29" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="Z29" t="s">
         <v>88</v>
       </c>
       <c r="AA29" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="AB29" t="s">
         <v>88</v>
       </c>
       <c r="AE29" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="AF29" t="s">
         <v>88</v>
       </c>
       <c r="AI29" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
       <c r="AJ29" t="s">
         <v>88</v>
@@ -8669,7 +8675,7 @@
         <v>88</v>
       </c>
       <c r="AQ29" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="AR29" t="s">
         <v>88</v>
@@ -8713,25 +8719,25 @@
         <v>88</v>
       </c>
       <c r="Y30" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="Z30" t="s">
         <v>88</v>
       </c>
       <c r="AA30" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="AB30" t="s">
         <v>88</v>
       </c>
       <c r="AE30" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="AF30" t="s">
         <v>88</v>
       </c>
       <c r="AI30" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="AJ30" t="s">
         <v>88</v>
@@ -8743,7 +8749,7 @@
         <v>88</v>
       </c>
       <c r="AQ30" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="AR30" t="s">
         <v>88</v>
@@ -8787,25 +8793,25 @@
         <v>88</v>
       </c>
       <c r="Y31" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="Z31" t="s">
         <v>88</v>
       </c>
       <c r="AA31" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="AB31" t="s">
         <v>88</v>
       </c>
       <c r="AE31" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="AF31" t="s">
         <v>88</v>
       </c>
       <c r="AI31" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="AJ31" t="s">
         <v>88</v>
@@ -8817,7 +8823,7 @@
         <v>88</v>
       </c>
       <c r="AQ31" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="AR31" t="s">
         <v>88</v>
@@ -8861,25 +8867,25 @@
         <v>88</v>
       </c>
       <c r="Y32" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
       <c r="Z32" t="s">
         <v>88</v>
       </c>
       <c r="AA32" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
       <c r="AB32" t="s">
         <v>88</v>
       </c>
       <c r="AE32" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
       <c r="AF32" t="s">
         <v>88</v>
       </c>
       <c r="AI32" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="AJ32" t="s">
         <v>88</v>
@@ -8891,7 +8897,7 @@
         <v>88</v>
       </c>
       <c r="AQ32" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
       <c r="AR32" t="s">
         <v>88</v>
@@ -8935,25 +8941,25 @@
         <v>88</v>
       </c>
       <c r="Y33" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="Z33" t="s">
         <v>88</v>
       </c>
       <c r="AA33" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="AB33" t="s">
         <v>88</v>
       </c>
       <c r="AE33" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="AF33" t="s">
         <v>88</v>
       </c>
       <c r="AI33" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="AJ33" t="s">
         <v>88</v>
@@ -8965,7 +8971,7 @@
         <v>88</v>
       </c>
       <c r="AQ33" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="AR33" t="s">
         <v>88</v>
@@ -9009,25 +9015,25 @@
         <v>88</v>
       </c>
       <c r="Y34" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="Z34" t="s">
         <v>88</v>
       </c>
       <c r="AA34" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="AB34" t="s">
         <v>88</v>
       </c>
       <c r="AE34" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="AF34" t="s">
         <v>88</v>
       </c>
       <c r="AI34" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="AJ34" t="s">
         <v>88</v>
@@ -9039,7 +9045,7 @@
         <v>88</v>
       </c>
       <c r="AQ34" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="AR34" t="s">
         <v>88</v>
@@ -9083,25 +9089,25 @@
         <v>88</v>
       </c>
       <c r="Y35" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="Z35" t="s">
         <v>88</v>
       </c>
       <c r="AA35" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="AB35" t="s">
         <v>88</v>
       </c>
       <c r="AE35" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="AF35" t="s">
         <v>88</v>
       </c>
       <c r="AI35" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="AJ35" t="s">
         <v>88</v>
@@ -9113,7 +9119,7 @@
         <v>88</v>
       </c>
       <c r="AQ35" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="AR35" t="s">
         <v>88</v>
@@ -9157,25 +9163,25 @@
         <v>88</v>
       </c>
       <c r="Y36" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="Z36" t="s">
         <v>88</v>
       </c>
       <c r="AA36" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="AB36" t="s">
         <v>88</v>
       </c>
       <c r="AE36" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="AF36" t="s">
         <v>88</v>
       </c>
       <c r="AI36" t="s">
-        <v>1607</v>
+        <v>1609</v>
       </c>
       <c r="AJ36" t="s">
         <v>88</v>
@@ -9187,7 +9193,7 @@
         <v>88</v>
       </c>
       <c r="AQ36" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="AR36" t="s">
         <v>88</v>
@@ -9231,25 +9237,25 @@
         <v>88</v>
       </c>
       <c r="Y37" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="Z37" t="s">
         <v>88</v>
       </c>
       <c r="AA37" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="AB37" t="s">
         <v>88</v>
       </c>
       <c r="AE37" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="AF37" t="s">
         <v>88</v>
       </c>
       <c r="AI37" t="s">
-        <v>1608</v>
+        <v>1610</v>
       </c>
       <c r="AJ37" t="s">
         <v>88</v>
@@ -9261,7 +9267,7 @@
         <v>88</v>
       </c>
       <c r="AQ37" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="AR37" t="s">
         <v>88</v>
@@ -9305,25 +9311,25 @@
         <v>88</v>
       </c>
       <c r="Y38" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="Z38" t="s">
         <v>88</v>
       </c>
       <c r="AA38" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="AB38" t="s">
         <v>88</v>
       </c>
       <c r="AE38" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="AF38" t="s">
         <v>88</v>
       </c>
       <c r="AI38" t="s">
-        <v>1609</v>
+        <v>1611</v>
       </c>
       <c r="AJ38" t="s">
         <v>88</v>
@@ -9335,7 +9341,7 @@
         <v>88</v>
       </c>
       <c r="AQ38" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="AR38" t="s">
         <v>88</v>
@@ -9379,25 +9385,25 @@
         <v>88</v>
       </c>
       <c r="Y39" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="Z39" t="s">
         <v>88</v>
       </c>
       <c r="AA39" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="AB39" t="s">
         <v>88</v>
       </c>
       <c r="AE39" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="AF39" t="s">
         <v>88</v>
       </c>
       <c r="AI39" t="s">
-        <v>1610</v>
+        <v>1612</v>
       </c>
       <c r="AJ39" t="s">
         <v>88</v>
@@ -9409,7 +9415,7 @@
         <v>88</v>
       </c>
       <c r="AQ39" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="AR39" t="s">
         <v>88</v>
@@ -9453,25 +9459,25 @@
         <v>88</v>
       </c>
       <c r="Y40" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="Z40" t="s">
         <v>88</v>
       </c>
       <c r="AA40" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="AB40" t="s">
         <v>88</v>
       </c>
       <c r="AE40" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="AF40" t="s">
         <v>88</v>
       </c>
       <c r="AI40" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="AJ40" t="s">
         <v>88</v>
@@ -9483,7 +9489,7 @@
         <v>88</v>
       </c>
       <c r="AQ40" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="AR40" t="s">
         <v>88</v>
@@ -9521,25 +9527,25 @@
         <v>88</v>
       </c>
       <c r="Y41" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="Z41" t="s">
         <v>88</v>
       </c>
       <c r="AA41" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="AB41" t="s">
         <v>88</v>
       </c>
       <c r="AE41" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="AF41" t="s">
         <v>88</v>
       </c>
       <c r="AI41" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="AJ41" t="s">
         <v>88</v>
@@ -9551,7 +9557,7 @@
         <v>88</v>
       </c>
       <c r="AQ41" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="AR41" t="s">
         <v>88</v>
@@ -9589,25 +9595,25 @@
         <v>88</v>
       </c>
       <c r="Y42" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="Z42" t="s">
         <v>88</v>
       </c>
       <c r="AA42" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="AB42" t="s">
         <v>88</v>
       </c>
       <c r="AE42" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="AF42" t="s">
         <v>88</v>
       </c>
       <c r="AI42" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="AJ42" t="s">
         <v>88</v>
@@ -9619,7 +9625,7 @@
         <v>88</v>
       </c>
       <c r="AQ42" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="AR42" t="s">
         <v>88</v>
@@ -9657,25 +9663,25 @@
         <v>88</v>
       </c>
       <c r="Y43" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="Z43" t="s">
         <v>88</v>
       </c>
       <c r="AA43" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="AB43" t="s">
         <v>88</v>
       </c>
       <c r="AE43" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="AF43" t="s">
         <v>88</v>
       </c>
       <c r="AI43" t="s">
-        <v>1614</v>
+        <v>1616</v>
       </c>
       <c r="AJ43" t="s">
         <v>88</v>
@@ -9687,7 +9693,7 @@
         <v>88</v>
       </c>
       <c r="AQ43" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="AR43" t="s">
         <v>88</v>
@@ -9725,25 +9731,25 @@
         <v>88</v>
       </c>
       <c r="Y44" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="Z44" t="s">
         <v>88</v>
       </c>
       <c r="AA44" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="AB44" t="s">
         <v>88</v>
       </c>
       <c r="AE44" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="AF44" t="s">
         <v>88</v>
       </c>
       <c r="AI44" t="s">
-        <v>1615</v>
+        <v>1617</v>
       </c>
       <c r="AJ44" t="s">
         <v>88</v>
@@ -9755,7 +9761,7 @@
         <v>88</v>
       </c>
       <c r="AQ44" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="AR44" t="s">
         <v>88</v>
@@ -9793,25 +9799,25 @@
         <v>88</v>
       </c>
       <c r="Y45" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="Z45" t="s">
         <v>88</v>
       </c>
       <c r="AA45" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="AB45" t="s">
         <v>88</v>
       </c>
       <c r="AE45" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="AF45" t="s">
         <v>88</v>
       </c>
       <c r="AI45" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="AJ45" t="s">
         <v>88</v>
@@ -9823,7 +9829,7 @@
         <v>88</v>
       </c>
       <c r="AQ45" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="AR45" t="s">
         <v>88</v>
@@ -9861,25 +9867,25 @@
         <v>88</v>
       </c>
       <c r="Y46" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="Z46" t="s">
         <v>88</v>
       </c>
       <c r="AA46" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="AB46" t="s">
         <v>88</v>
       </c>
       <c r="AE46" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="AF46" t="s">
         <v>88</v>
       </c>
       <c r="AI46" t="s">
-        <v>1617</v>
+        <v>1619</v>
       </c>
       <c r="AJ46" t="s">
         <v>88</v>
@@ -9891,7 +9897,7 @@
         <v>88</v>
       </c>
       <c r="AQ46" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="AR46" t="s">
         <v>88</v>
@@ -9929,25 +9935,25 @@
         <v>88</v>
       </c>
       <c r="Y47" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="Z47" t="s">
         <v>88</v>
       </c>
       <c r="AA47" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="AB47" t="s">
         <v>88</v>
       </c>
       <c r="AE47" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="AF47" t="s">
         <v>88</v>
       </c>
       <c r="AI47" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="AJ47" t="s">
         <v>88</v>
@@ -9959,7 +9965,7 @@
         <v>88</v>
       </c>
       <c r="AQ47" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="AR47" t="s">
         <v>88</v>
@@ -9997,25 +10003,25 @@
         <v>88</v>
       </c>
       <c r="Y48" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="Z48" t="s">
         <v>88</v>
       </c>
       <c r="AA48" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="AB48" t="s">
         <v>88</v>
       </c>
       <c r="AE48" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="AF48" t="s">
         <v>88</v>
       </c>
       <c r="AI48" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="AJ48" t="s">
         <v>88</v>
@@ -10027,7 +10033,7 @@
         <v>88</v>
       </c>
       <c r="AQ48" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="AR48" t="s">
         <v>88</v>
@@ -10065,25 +10071,25 @@
         <v>88</v>
       </c>
       <c r="Y49" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="Z49" t="s">
         <v>88</v>
       </c>
       <c r="AA49" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="AB49" t="s">
         <v>88</v>
       </c>
       <c r="AE49" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="AF49" t="s">
         <v>88</v>
       </c>
       <c r="AI49" t="s">
-        <v>1620</v>
+        <v>1622</v>
       </c>
       <c r="AJ49" t="s">
         <v>88</v>
@@ -10095,7 +10101,7 @@
         <v>88</v>
       </c>
       <c r="AQ49" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="AR49" t="s">
         <v>88</v>
@@ -10133,25 +10139,25 @@
         <v>88</v>
       </c>
       <c r="Y50" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="Z50" t="s">
         <v>88</v>
       </c>
       <c r="AA50" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="AB50" t="s">
         <v>88</v>
       </c>
       <c r="AE50" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="AF50" t="s">
         <v>88</v>
       </c>
       <c r="AI50" t="s">
-        <v>1621</v>
+        <v>1623</v>
       </c>
       <c r="AJ50" t="s">
         <v>88</v>
@@ -10163,7 +10169,7 @@
         <v>88</v>
       </c>
       <c r="AQ50" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="AR50" t="s">
         <v>88</v>
@@ -10201,25 +10207,25 @@
         <v>88</v>
       </c>
       <c r="Y51" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="Z51" t="s">
         <v>88</v>
       </c>
       <c r="AA51" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="AB51" t="s">
         <v>88</v>
       </c>
       <c r="AE51" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="AF51" t="s">
         <v>88</v>
       </c>
       <c r="AI51" t="s">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="AJ51" t="s">
         <v>88</v>
@@ -10231,7 +10237,7 @@
         <v>88</v>
       </c>
       <c r="AQ51" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="AR51" t="s">
         <v>88</v>
@@ -10269,25 +10275,25 @@
         <v>88</v>
       </c>
       <c r="Y52" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="Z52" t="s">
         <v>88</v>
       </c>
       <c r="AA52" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="AB52" t="s">
         <v>88</v>
       </c>
       <c r="AE52" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="AF52" t="s">
         <v>88</v>
       </c>
       <c r="AI52" t="s">
-        <v>1623</v>
+        <v>1625</v>
       </c>
       <c r="AJ52" t="s">
         <v>88</v>
@@ -10299,7 +10305,7 @@
         <v>88</v>
       </c>
       <c r="AQ52" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="AR52" t="s">
         <v>88</v>
@@ -10337,25 +10343,25 @@
         <v>88</v>
       </c>
       <c r="Y53" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="Z53" t="s">
         <v>88</v>
       </c>
       <c r="AA53" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="AB53" t="s">
         <v>88</v>
       </c>
       <c r="AE53" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="AF53" t="s">
         <v>88</v>
       </c>
       <c r="AI53" t="s">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="AJ53" t="s">
         <v>88</v>
@@ -10367,7 +10373,7 @@
         <v>88</v>
       </c>
       <c r="AQ53" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="AR53" t="s">
         <v>88</v>
@@ -10405,25 +10411,25 @@
         <v>88</v>
       </c>
       <c r="Y54" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="Z54" t="s">
         <v>88</v>
       </c>
       <c r="AA54" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="AB54" t="s">
         <v>88</v>
       </c>
       <c r="AE54" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="AF54" t="s">
         <v>88</v>
       </c>
       <c r="AI54" t="s">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="AJ54" t="s">
         <v>88</v>
@@ -10435,7 +10441,7 @@
         <v>88</v>
       </c>
       <c r="AQ54" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="AR54" t="s">
         <v>88</v>
@@ -10473,25 +10479,25 @@
         <v>88</v>
       </c>
       <c r="Y55" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="Z55" t="s">
         <v>88</v>
       </c>
       <c r="AA55" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="AB55" t="s">
         <v>88</v>
       </c>
       <c r="AE55" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="AF55" t="s">
         <v>88</v>
       </c>
       <c r="AI55" t="s">
-        <v>1626</v>
+        <v>1628</v>
       </c>
       <c r="AJ55" t="s">
         <v>88</v>
@@ -10503,7 +10509,7 @@
         <v>88</v>
       </c>
       <c r="AQ55" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="AR55" t="s">
         <v>88</v>
@@ -10541,25 +10547,25 @@
         <v>88</v>
       </c>
       <c r="Y56" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
       <c r="Z56" t="s">
         <v>88</v>
       </c>
       <c r="AA56" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
       <c r="AB56" t="s">
         <v>88</v>
       </c>
       <c r="AE56" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
       <c r="AF56" t="s">
         <v>88</v>
       </c>
       <c r="AI56" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AJ56" t="s">
         <v>88</v>
@@ -10571,7 +10577,7 @@
         <v>88</v>
       </c>
       <c r="AQ56" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
       <c r="AR56" t="s">
         <v>88</v>
@@ -10609,25 +10615,25 @@
         <v>88</v>
       </c>
       <c r="Y57" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="Z57" t="s">
         <v>88</v>
       </c>
       <c r="AA57" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="AB57" t="s">
         <v>88</v>
       </c>
       <c r="AE57" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="AF57" t="s">
         <v>88</v>
       </c>
       <c r="AI57" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="AJ57" t="s">
         <v>88</v>
@@ -10639,7 +10645,7 @@
         <v>88</v>
       </c>
       <c r="AQ57" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="AR57" t="s">
         <v>88</v>
@@ -10677,25 +10683,25 @@
         <v>88</v>
       </c>
       <c r="Y58" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
       <c r="Z58" t="s">
         <v>88</v>
       </c>
       <c r="AA58" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
       <c r="AB58" t="s">
         <v>88</v>
       </c>
       <c r="AE58" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
       <c r="AF58" t="s">
         <v>88</v>
       </c>
       <c r="AI58" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="AJ58" t="s">
         <v>88</v>
@@ -10707,7 +10713,7 @@
         <v>88</v>
       </c>
       <c r="AQ58" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
       <c r="AR58" t="s">
         <v>88</v>
@@ -10745,25 +10751,25 @@
         <v>88</v>
       </c>
       <c r="Y59" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="Z59" t="s">
         <v>88</v>
       </c>
       <c r="AA59" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="AB59" t="s">
         <v>88</v>
       </c>
       <c r="AE59" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="AF59" t="s">
         <v>88</v>
       </c>
       <c r="AI59" t="s">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="AJ59" t="s">
         <v>88</v>
@@ -10775,7 +10781,7 @@
         <v>88</v>
       </c>
       <c r="AQ59" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="AR59" t="s">
         <v>88</v>
@@ -10813,25 +10819,25 @@
         <v>88</v>
       </c>
       <c r="Y60" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
       <c r="Z60" t="s">
         <v>88</v>
       </c>
       <c r="AA60" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
       <c r="AB60" t="s">
         <v>88</v>
       </c>
       <c r="AE60" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
       <c r="AF60" t="s">
         <v>88</v>
       </c>
       <c r="AI60" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="AJ60" t="s">
         <v>88</v>
@@ -10843,7 +10849,7 @@
         <v>88</v>
       </c>
       <c r="AQ60" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
       <c r="AR60" t="s">
         <v>88</v>
@@ -10881,25 +10887,25 @@
         <v>88</v>
       </c>
       <c r="Y61" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="Z61" t="s">
         <v>88</v>
       </c>
       <c r="AA61" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="AB61" t="s">
         <v>88</v>
       </c>
       <c r="AE61" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="AF61" t="s">
         <v>88</v>
       </c>
       <c r="AI61" t="s">
-        <v>1631</v>
+        <v>1633</v>
       </c>
       <c r="AJ61" t="s">
         <v>88</v>
@@ -10911,7 +10917,7 @@
         <v>88</v>
       </c>
       <c r="AQ61" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="AR61" t="s">
         <v>88</v>
@@ -10949,25 +10955,25 @@
         <v>88</v>
       </c>
       <c r="Y62" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="Z62" t="s">
         <v>88</v>
       </c>
       <c r="AA62" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="AB62" t="s">
         <v>88</v>
       </c>
       <c r="AE62" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="AF62" t="s">
         <v>88</v>
       </c>
       <c r="AI62" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="AJ62" t="s">
         <v>88</v>
@@ -10979,7 +10985,7 @@
         <v>88</v>
       </c>
       <c r="AQ62" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="AR62" t="s">
         <v>88</v>
@@ -11017,25 +11023,25 @@
         <v>88</v>
       </c>
       <c r="Y63" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="Z63" t="s">
         <v>88</v>
       </c>
       <c r="AA63" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="AB63" t="s">
         <v>88</v>
       </c>
       <c r="AE63" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="AF63" t="s">
         <v>88</v>
       </c>
       <c r="AI63" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="AJ63" t="s">
         <v>88</v>
@@ -11047,7 +11053,7 @@
         <v>88</v>
       </c>
       <c r="AQ63" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="AR63" t="s">
         <v>88</v>
@@ -11103,7 +11109,7 @@
         <v>88</v>
       </c>
       <c r="AI64" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="AJ64" t="s">
         <v>88</v>
@@ -11153,25 +11159,25 @@
         <v>88</v>
       </c>
       <c r="Y65" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="Z65" t="s">
         <v>88</v>
       </c>
       <c r="AA65" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="AB65" t="s">
         <v>88</v>
       </c>
       <c r="AE65" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="AF65" t="s">
         <v>88</v>
       </c>
       <c r="AI65" t="s">
-        <v>1635</v>
+        <v>1637</v>
       </c>
       <c r="AJ65" t="s">
         <v>88</v>
@@ -11183,7 +11189,7 @@
         <v>88</v>
       </c>
       <c r="AQ65" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="AR65" t="s">
         <v>88</v>
@@ -11221,25 +11227,25 @@
         <v>88</v>
       </c>
       <c r="Y66" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="Z66" t="s">
         <v>88</v>
       </c>
       <c r="AA66" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="AB66" t="s">
         <v>88</v>
       </c>
       <c r="AE66" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="AF66" t="s">
         <v>88</v>
       </c>
       <c r="AI66" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="AJ66" t="s">
         <v>88</v>
@@ -11251,7 +11257,7 @@
         <v>88</v>
       </c>
       <c r="AQ66" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="AR66" t="s">
         <v>88</v>
@@ -11289,25 +11295,25 @@
         <v>88</v>
       </c>
       <c r="Y67" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
       <c r="Z67" t="s">
         <v>88</v>
       </c>
       <c r="AA67" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
       <c r="AB67" t="s">
         <v>88</v>
       </c>
       <c r="AE67" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
       <c r="AF67" t="s">
         <v>88</v>
       </c>
       <c r="AI67" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="AJ67" t="s">
         <v>88</v>
@@ -11319,7 +11325,7 @@
         <v>88</v>
       </c>
       <c r="AQ67" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
       <c r="AR67" t="s">
         <v>88</v>
@@ -11357,25 +11363,25 @@
         <v>88</v>
       </c>
       <c r="Y68" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
       <c r="Z68" t="s">
         <v>88</v>
       </c>
       <c r="AA68" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
       <c r="AB68" t="s">
         <v>88</v>
       </c>
       <c r="AE68" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
       <c r="AF68" t="s">
         <v>88</v>
       </c>
       <c r="AI68" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="AJ68" t="s">
         <v>88</v>
@@ -11387,7 +11393,7 @@
         <v>88</v>
       </c>
       <c r="AQ68" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
       <c r="AR68" t="s">
         <v>88</v>
@@ -11425,7 +11431,7 @@
         <v>88</v>
       </c>
       <c r="AI69" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="AJ69" t="s">
         <v>88</v>
@@ -11469,7 +11475,7 @@
         <v>88</v>
       </c>
       <c r="AI70" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="AJ70" t="s">
         <v>88</v>
@@ -11513,7 +11519,7 @@
         <v>88</v>
       </c>
       <c r="AI71" t="s">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c r="AJ71" t="s">
         <v>88</v>
@@ -11557,7 +11563,7 @@
         <v>88</v>
       </c>
       <c r="AI72" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="AJ72" t="s">
         <v>88</v>
@@ -11601,7 +11607,7 @@
         <v>88</v>
       </c>
       <c r="AI73" t="s">
-        <v>1643</v>
+        <v>1645</v>
       </c>
       <c r="AJ73" t="s">
         <v>88</v>
@@ -11645,7 +11651,7 @@
         <v>88</v>
       </c>
       <c r="AI74" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="AJ74" t="s">
         <v>88</v>
@@ -11689,7 +11695,7 @@
         <v>88</v>
       </c>
       <c r="AI75" t="s">
-        <v>1645</v>
+        <v>1647</v>
       </c>
       <c r="AJ75" t="s">
         <v>88</v>
@@ -11733,7 +11739,7 @@
         <v>88</v>
       </c>
       <c r="AI76" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="AJ76" t="s">
         <v>88</v>
@@ -11777,7 +11783,7 @@
         <v>88</v>
       </c>
       <c r="AI77" t="s">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="AJ77" t="s">
         <v>88</v>
@@ -11821,7 +11827,7 @@
         <v>88</v>
       </c>
       <c r="AI78" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="AJ78" t="s">
         <v>88</v>
@@ -11865,7 +11871,7 @@
         <v>88</v>
       </c>
       <c r="AI79" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="AJ79" t="s">
         <v>88</v>
@@ -11909,7 +11915,7 @@
         <v>88</v>
       </c>
       <c r="AI80" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="AJ80" t="s">
         <v>88</v>
@@ -11953,7 +11959,7 @@
         <v>88</v>
       </c>
       <c r="AI81" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="AJ81" t="s">
         <v>88</v>
@@ -11997,7 +12003,7 @@
         <v>88</v>
       </c>
       <c r="AI82" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="AJ82" t="s">
         <v>88</v>
@@ -12041,7 +12047,7 @@
         <v>88</v>
       </c>
       <c r="AI83" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="AJ83" t="s">
         <v>88</v>
@@ -12085,7 +12091,7 @@
         <v>88</v>
       </c>
       <c r="AI84" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="AJ84" t="s">
         <v>88</v>
@@ -12129,7 +12135,7 @@
         <v>88</v>
       </c>
       <c r="AI85" t="s">
-        <v>1655</v>
+        <v>1657</v>
       </c>
       <c r="AJ85" t="s">
         <v>88</v>
@@ -12173,7 +12179,7 @@
         <v>88</v>
       </c>
       <c r="AI86" t="s">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="AJ86" t="s">
         <v>88</v>
@@ -12199,7 +12205,7 @@
         <v>88</v>
       </c>
       <c r="AI87" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="AJ87" t="s">
         <v>88</v>
@@ -12219,7 +12225,7 @@
         <v>88</v>
       </c>
       <c r="AI88" t="s">
-        <v>1658</v>
+        <v>1660</v>
       </c>
       <c r="AJ88" t="s">
         <v>88</v>
@@ -12239,7 +12245,7 @@
         <v>88</v>
       </c>
       <c r="AI89" t="s">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c r="AJ89" t="s">
         <v>88</v>
@@ -12259,7 +12265,7 @@
         <v>88</v>
       </c>
       <c r="AI90" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="AJ90" t="s">
         <v>88</v>
@@ -12279,7 +12285,7 @@
         <v>88</v>
       </c>
       <c r="AI91" t="s">
-        <v>1661</v>
+        <v>1663</v>
       </c>
       <c r="AJ91" t="s">
         <v>88</v>
@@ -12319,7 +12325,7 @@
         <v>88</v>
       </c>
       <c r="AI93" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="AJ93" t="s">
         <v>88</v>
@@ -12339,7 +12345,7 @@
         <v>88</v>
       </c>
       <c r="AI94" t="s">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c r="AJ94" t="s">
         <v>88</v>
@@ -12359,7 +12365,7 @@
         <v>88</v>
       </c>
       <c r="AI95" t="s">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="AJ95" t="s">
         <v>88</v>
@@ -12379,7 +12385,7 @@
         <v>88</v>
       </c>
       <c r="AI96" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="AJ96" t="s">
         <v>88</v>
@@ -12399,7 +12405,7 @@
         <v>88</v>
       </c>
       <c r="AI97" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="AJ97" t="s">
         <v>88</v>
@@ -12419,7 +12425,7 @@
         <v>88</v>
       </c>
       <c r="AI98" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="AJ98" t="s">
         <v>88</v>
@@ -12439,7 +12445,7 @@
         <v>88</v>
       </c>
       <c r="AI99" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="AJ99" t="s">
         <v>88</v>
@@ -12459,7 +12465,7 @@
         <v>88</v>
       </c>
       <c r="AI100" t="s">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="AJ100" t="s">
         <v>88</v>
@@ -12479,7 +12485,7 @@
         <v>88</v>
       </c>
       <c r="AI101" t="s">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="AJ101" t="s">
         <v>88</v>
@@ -12499,7 +12505,7 @@
         <v>88</v>
       </c>
       <c r="AI102" t="s">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="AJ102" t="s">
         <v>88</v>
@@ -12519,7 +12525,7 @@
         <v>88</v>
       </c>
       <c r="AI103" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="AJ103" t="s">
         <v>88</v>
@@ -12539,7 +12545,7 @@
         <v>88</v>
       </c>
       <c r="AI104" t="s">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="AJ104" t="s">
         <v>88</v>
@@ -12559,7 +12565,7 @@
         <v>88</v>
       </c>
       <c r="AI105" t="s">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="AJ105" t="s">
         <v>88</v>
@@ -12579,7 +12585,7 @@
         <v>88</v>
       </c>
       <c r="AI106" t="s">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="AJ106" t="s">
         <v>88</v>
@@ -12599,7 +12605,7 @@
         <v>88</v>
       </c>
       <c r="AI107" t="s">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="AJ107" t="s">
         <v>88</v>
@@ -12619,7 +12625,7 @@
         <v>88</v>
       </c>
       <c r="AI108" t="s">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="AJ108" t="s">
         <v>88</v>
@@ -12639,7 +12645,7 @@
         <v>88</v>
       </c>
       <c r="AI109" t="s">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="AJ109" t="s">
         <v>88</v>
@@ -12659,7 +12665,7 @@
         <v>88</v>
       </c>
       <c r="AI110" t="s">
-        <v>1679</v>
+        <v>1681</v>
       </c>
       <c r="AJ110" t="s">
         <v>88</v>
@@ -12679,7 +12685,7 @@
         <v>88</v>
       </c>
       <c r="AI111" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="AJ111" t="s">
         <v>88</v>
@@ -12699,7 +12705,7 @@
         <v>88</v>
       </c>
       <c r="AI112" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="AJ112" t="s">
         <v>88</v>
@@ -12719,7 +12725,7 @@
         <v>88</v>
       </c>
       <c r="AI113" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="AJ113" t="s">
         <v>88</v>
@@ -12739,7 +12745,7 @@
         <v>88</v>
       </c>
       <c r="AI114" t="s">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="AJ114" t="s">
         <v>88</v>
@@ -12759,7 +12765,7 @@
         <v>88</v>
       </c>
       <c r="AI115" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
       <c r="AJ115" t="s">
         <v>88</v>
@@ -12779,7 +12785,7 @@
         <v>88</v>
       </c>
       <c r="AI116" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="AJ116" t="s">
         <v>88</v>
@@ -12799,7 +12805,7 @@
         <v>88</v>
       </c>
       <c r="AI117" t="s">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="AJ117" t="s">
         <v>88</v>
@@ -12819,7 +12825,7 @@
         <v>88</v>
       </c>
       <c r="AI118" t="s">
-        <v>1687</v>
+        <v>1689</v>
       </c>
       <c r="AJ118" t="s">
         <v>88</v>
@@ -12839,7 +12845,7 @@
         <v>88</v>
       </c>
       <c r="AI119" t="s">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="AJ119" t="s">
         <v>88</v>
@@ -12859,7 +12865,7 @@
         <v>88</v>
       </c>
       <c r="AI120" t="s">
-        <v>1689</v>
+        <v>1691</v>
       </c>
       <c r="AJ120" t="s">
         <v>88</v>
@@ -12879,7 +12885,7 @@
         <v>88</v>
       </c>
       <c r="AI121" t="s">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="AJ121" t="s">
         <v>88</v>
@@ -12899,7 +12905,7 @@
         <v>88</v>
       </c>
       <c r="AI122" t="s">
-        <v>1691</v>
+        <v>1693</v>
       </c>
       <c r="AJ122" t="s">
         <v>88</v>
@@ -12919,7 +12925,7 @@
         <v>88</v>
       </c>
       <c r="AI123" t="s">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="AJ123" t="s">
         <v>88</v>
@@ -12939,7 +12945,7 @@
         <v>88</v>
       </c>
       <c r="AI124" t="s">
-        <v>1693</v>
+        <v>1695</v>
       </c>
       <c r="AJ124" t="s">
         <v>88</v>
@@ -12959,7 +12965,7 @@
         <v>88</v>
       </c>
       <c r="AI125" t="s">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="AJ125" t="s">
         <v>88</v>
@@ -12979,7 +12985,7 @@
         <v>88</v>
       </c>
       <c r="AI126" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="AJ126" t="s">
         <v>88</v>
@@ -12999,7 +13005,7 @@
         <v>88</v>
       </c>
       <c r="AI127" t="s">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="AJ127" t="s">
         <v>88</v>
@@ -13019,7 +13025,7 @@
         <v>88</v>
       </c>
       <c r="AI128" t="s">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="AJ128" t="s">
         <v>88</v>
@@ -13039,7 +13045,7 @@
         <v>88</v>
       </c>
       <c r="AI129" t="s">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="AJ129" t="s">
         <v>88</v>
@@ -13059,7 +13065,7 @@
         <v>88</v>
       </c>
       <c r="AI130" t="s">
-        <v>1699</v>
+        <v>1701</v>
       </c>
       <c r="AJ130" t="s">
         <v>88</v>
@@ -13079,7 +13085,7 @@
         <v>88</v>
       </c>
       <c r="AI131" t="s">
-        <v>1700</v>
+        <v>1702</v>
       </c>
       <c r="AJ131" t="s">
         <v>88</v>
@@ -13099,7 +13105,7 @@
         <v>88</v>
       </c>
       <c r="AI132" t="s">
-        <v>1701</v>
+        <v>1703</v>
       </c>
       <c r="AJ132" t="s">
         <v>88</v>
@@ -13119,7 +13125,7 @@
         <v>88</v>
       </c>
       <c r="AI133" t="s">
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c r="AJ133" t="s">
         <v>88</v>
@@ -13139,7 +13145,7 @@
         <v>88</v>
       </c>
       <c r="AI134" t="s">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="AJ134" t="s">
         <v>88</v>
@@ -13159,7 +13165,7 @@
         <v>88</v>
       </c>
       <c r="AI135" t="s">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="AJ135" t="s">
         <v>88</v>
@@ -13179,7 +13185,7 @@
         <v>88</v>
       </c>
       <c r="AI136" t="s">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="AJ136" t="s">
         <v>88</v>
@@ -13199,7 +13205,7 @@
         <v>88</v>
       </c>
       <c r="AI137" t="s">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="AJ137" t="s">
         <v>88</v>
@@ -13219,7 +13225,7 @@
         <v>88</v>
       </c>
       <c r="AI138" t="s">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c r="AJ138" t="s">
         <v>88</v>
@@ -13239,7 +13245,7 @@
         <v>88</v>
       </c>
       <c r="AI139" t="s">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="AJ139" t="s">
         <v>88</v>
@@ -13259,7 +13265,7 @@
         <v>88</v>
       </c>
       <c r="AI140" t="s">
-        <v>1709</v>
+        <v>1711</v>
       </c>
       <c r="AJ140" t="s">
         <v>88</v>
@@ -13279,7 +13285,7 @@
         <v>88</v>
       </c>
       <c r="AI141" t="s">
-        <v>1710</v>
+        <v>1712</v>
       </c>
       <c r="AJ141" t="s">
         <v>88</v>
@@ -13319,7 +13325,7 @@
         <v>88</v>
       </c>
       <c r="AI143" t="s">
-        <v>1711</v>
+        <v>1713</v>
       </c>
       <c r="AJ143" t="s">
         <v>88</v>
@@ -13339,7 +13345,7 @@
         <v>88</v>
       </c>
       <c r="AI144" t="s">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="AJ144" t="s">
         <v>88</v>
@@ -13359,7 +13365,7 @@
         <v>88</v>
       </c>
       <c r="AI145" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="AJ145" t="s">
         <v>88</v>
@@ -13379,7 +13385,7 @@
         <v>88</v>
       </c>
       <c r="AI146" t="s">
-        <v>1714</v>
+        <v>1716</v>
       </c>
       <c r="AJ146" t="s">
         <v>88</v>
@@ -13399,7 +13405,7 @@
         <v>88</v>
       </c>
       <c r="AI147" t="s">
-        <v>1715</v>
+        <v>1717</v>
       </c>
       <c r="AJ147" t="s">
         <v>88</v>
@@ -13419,7 +13425,7 @@
         <v>88</v>
       </c>
       <c r="AI148" t="s">
-        <v>1716</v>
+        <v>1718</v>
       </c>
       <c r="AJ148" t="s">
         <v>88</v>
@@ -13439,7 +13445,7 @@
         <v>88</v>
       </c>
       <c r="AI149" t="s">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="AJ149" t="s">
         <v>88</v>
@@ -13459,7 +13465,7 @@
         <v>88</v>
       </c>
       <c r="AI150" t="s">
-        <v>1718</v>
+        <v>1720</v>
       </c>
       <c r="AJ150" t="s">
         <v>88</v>
@@ -13479,7 +13485,7 @@
         <v>88</v>
       </c>
       <c r="AI151" t="s">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="AJ151" t="s">
         <v>88</v>
@@ -13499,7 +13505,7 @@
         <v>88</v>
       </c>
       <c r="AI152" t="s">
-        <v>1720</v>
+        <v>1722</v>
       </c>
       <c r="AJ152" t="s">
         <v>88</v>
@@ -13519,7 +13525,7 @@
         <v>88</v>
       </c>
       <c r="AI153" t="s">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="AJ153" t="s">
         <v>88</v>
@@ -13539,7 +13545,7 @@
         <v>88</v>
       </c>
       <c r="AI154" t="s">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="AJ154" t="s">
         <v>88</v>
@@ -13559,7 +13565,7 @@
         <v>88</v>
       </c>
       <c r="AI155" t="s">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="AJ155" t="s">
         <v>88</v>
@@ -13579,7 +13585,7 @@
         <v>88</v>
       </c>
       <c r="AI156" t="s">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="AJ156" t="s">
         <v>88</v>
@@ -13599,7 +13605,7 @@
         <v>88</v>
       </c>
       <c r="AI157" t="s">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="AJ157" t="s">
         <v>88</v>
@@ -13619,7 +13625,7 @@
         <v>88</v>
       </c>
       <c r="AI158" t="s">
-        <v>1726</v>
+        <v>1728</v>
       </c>
       <c r="AJ158" t="s">
         <v>88</v>
@@ -13639,7 +13645,7 @@
         <v>88</v>
       </c>
       <c r="AI159" t="s">
-        <v>1727</v>
+        <v>1729</v>
       </c>
       <c r="AJ159" t="s">
         <v>88</v>
@@ -13659,7 +13665,7 @@
         <v>88</v>
       </c>
       <c r="AI160" t="s">
-        <v>1728</v>
+        <v>1730</v>
       </c>
       <c r="AJ160" t="s">
         <v>88</v>
@@ -13679,7 +13685,7 @@
         <v>88</v>
       </c>
       <c r="AI161" t="s">
-        <v>1729</v>
+        <v>1731</v>
       </c>
       <c r="AJ161" t="s">
         <v>88</v>
@@ -13699,7 +13705,7 @@
         <v>88</v>
       </c>
       <c r="AI162" t="s">
-        <v>1730</v>
+        <v>1732</v>
       </c>
       <c r="AJ162" t="s">
         <v>88</v>
@@ -13719,7 +13725,7 @@
         <v>88</v>
       </c>
       <c r="AI163" t="s">
-        <v>1731</v>
+        <v>1733</v>
       </c>
       <c r="AJ163" t="s">
         <v>88</v>
@@ -13739,7 +13745,7 @@
         <v>88</v>
       </c>
       <c r="AI164" t="s">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c r="AJ164" t="s">
         <v>88</v>
@@ -13759,7 +13765,7 @@
         <v>88</v>
       </c>
       <c r="AI165" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="AJ165" t="s">
         <v>88</v>
@@ -13779,7 +13785,7 @@
         <v>88</v>
       </c>
       <c r="AI166" t="s">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="AJ166" t="s">
         <v>88</v>
@@ -13799,7 +13805,7 @@
         <v>88</v>
       </c>
       <c r="AI167" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="AJ167" t="s">
         <v>88</v>
@@ -13819,7 +13825,7 @@
         <v>88</v>
       </c>
       <c r="AI168" t="s">
-        <v>1736</v>
+        <v>1738</v>
       </c>
       <c r="AJ168" t="s">
         <v>88</v>
@@ -13839,7 +13845,7 @@
         <v>88</v>
       </c>
       <c r="AI169" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="AJ169" t="s">
         <v>88</v>
@@ -13859,7 +13865,7 @@
         <v>88</v>
       </c>
       <c r="AI170" t="s">
-        <v>1738</v>
+        <v>1740</v>
       </c>
       <c r="AJ170" t="s">
         <v>88</v>
@@ -13879,7 +13885,7 @@
         <v>88</v>
       </c>
       <c r="AI171" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="AJ171" t="s">
         <v>88</v>
@@ -13899,7 +13905,7 @@
         <v>88</v>
       </c>
       <c r="AI172" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="AJ172" t="s">
         <v>88</v>
@@ -13919,7 +13925,7 @@
         <v>88</v>
       </c>
       <c r="AI173" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="AJ173" t="s">
         <v>88</v>
@@ -13939,7 +13945,7 @@
         <v>88</v>
       </c>
       <c r="AI174" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="AJ174" t="s">
         <v>88</v>
@@ -13959,7 +13965,7 @@
         <v>88</v>
       </c>
       <c r="AI175" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="AJ175" t="s">
         <v>88</v>
@@ -13979,7 +13985,7 @@
         <v>88</v>
       </c>
       <c r="AI176" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="AJ176" t="s">
         <v>88</v>
@@ -13999,7 +14005,7 @@
         <v>88</v>
       </c>
       <c r="AI177" t="s">
-        <v>1745</v>
+        <v>1747</v>
       </c>
       <c r="AJ177" t="s">
         <v>88</v>
@@ -14019,7 +14025,7 @@
         <v>88</v>
       </c>
       <c r="AI178" t="s">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="AJ178" t="s">
         <v>88</v>
@@ -14039,7 +14045,7 @@
         <v>88</v>
       </c>
       <c r="AI179" t="s">
-        <v>1747</v>
+        <v>1749</v>
       </c>
       <c r="AJ179" t="s">
         <v>88</v>
@@ -14059,7 +14065,7 @@
         <v>88</v>
       </c>
       <c r="AI180" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="AJ180" t="s">
         <v>88</v>
@@ -14079,7 +14085,7 @@
         <v>88</v>
       </c>
       <c r="AI181" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="AJ181" t="s">
         <v>88</v>
@@ -25517,13 +25523,13 @@
     </row>
     <row r="998" spans="23:42">
       <c r="W998" t="s">
-        <v>478</v>
+        <v>1506</v>
       </c>
       <c r="X998" t="s">
         <v>88</v>
       </c>
       <c r="AO998" t="s">
-        <v>478</v>
+        <v>1506</v>
       </c>
       <c r="AP998" t="s">
         <v>88</v>
@@ -25531,13 +25537,13 @@
     </row>
     <row r="999" spans="23:42">
       <c r="W999" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="X999" t="s">
         <v>88</v>
       </c>
       <c r="AO999" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="AP999" t="s">
         <v>88</v>
@@ -25545,13 +25551,13 @@
     </row>
     <row r="1000" spans="23:42">
       <c r="W1000" t="s">
-        <v>1507</v>
+        <v>478</v>
       </c>
       <c r="X1000" t="s">
         <v>88</v>
       </c>
       <c r="AO1000" t="s">
-        <v>1507</v>
+        <v>478</v>
       </c>
       <c r="AP1000" t="s">
         <v>88</v>
@@ -25596,6 +25602,34 @@
         <v>1510</v>
       </c>
       <c r="AP1003" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1004" spans="23:42">
+      <c r="W1004" t="s">
+        <v>1511</v>
+      </c>
+      <c r="X1004" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO1004" t="s">
+        <v>1511</v>
+      </c>
+      <c r="AP1004" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1005" spans="23:42">
+      <c r="W1005" t="s">
+        <v>1512</v>
+      </c>
+      <c r="X1005" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO1005" t="s">
+        <v>1512</v>
+      </c>
+      <c r="AP1005" t="s">
         <v>88</v>
       </c>
     </row>
@@ -28371,7 +28405,7 @@
   </mergeCells>
   <dataValidations count="17">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A1000001">
-      <formula1>'Codelijsten'!$W$4:$W$1003</formula1>
+      <formula1>'Codelijsten'!$W$4:$W$1005</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:N1000001">
       <formula1>'Codelijsten'!$Y$4:$Y$68</formula1>
@@ -28404,7 +28438,7 @@
       <formula1>'Codelijsten'!$AM$4:$AM$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB8:BB1000001">
-      <formula1>'Codelijsten'!$AO$4:$AO$1003</formula1>
+      <formula1>'Codelijsten'!$AO$4:$AO$1005</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE8:BE1000001">
       <formula1>'Codelijsten'!$AQ$4:$AQ$68</formula1>
@@ -28450,50 +28484,50 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>1756</v>
+        <v>1758</v>
       </c>
       <c r="B1" t="s">
-        <v>1757</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="B2" t="s">
-        <v>1759</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1760</v>
+        <v>1762</v>
       </c>
       <c r="B3" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1762</v>
+        <v>1764</v>
       </c>
       <c r="B4" t="s">
-        <v>1763</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>1764</v>
+        <v>1766</v>
       </c>
       <c r="B5" t="s">
-        <v>1765</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1766</v>
+        <v>1768</v>
       </c>
       <c r="B6" t="s">
-        <v>1767</v>
+        <v>1769</v>
       </c>
     </row>
   </sheetData>

--- a/templates/productie/productie_opdracht_template_full.xlsx
+++ b/templates/productie/productie_opdracht_template_full.xlsx
@@ -5297,7 +5297,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-12-18 01:28:30.844740</t>
+    <t>2026-01-01 02:16:31.520114</t>
   </si>
   <si>
     <t>version</t>
